--- a/core/exporter/production/testing/expected/02_TestProductionParsingError_CODED.xlsx
+++ b/core/exporter/production/testing/expected/02_TestProductionParsingError_CODED.xlsx
@@ -671,7 +671,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[Please review the parentheses in the input statement. There is 1 additional opening parenthesis ('(').]</t>
+          <t>Please review the parentheses in the input statement. There is 1 additional opening parenthesis ('(').</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -723,12 +728,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -873,7 +878,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[1.2]</t>
+          <t>[OR].Bdir.[2.2]</t>
         </is>
       </c>
     </row>
@@ -925,12 +930,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1075,7 +1080,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[1.1]</t>
+          <t>[OR].Bdir.[2.1]</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1132,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1329,12 +1334,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1479,7 +1484,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[3.2]</t>
+          <t>[OR].Bdir.[4.2]</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1536,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1681,7 +1686,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>[OR].Bdir.[3.1]</t>
+          <t>[OR].Bdir.[4.1]</t>
         </is>
       </c>
     </row>
